--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_40.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4223176.722828739</v>
+        <v>4294828.515388786</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>682213.8818051493</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7224034.318661705</v>
+        <v>7128926.794513971</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>32.24381740537271</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>265.455691281111</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -859,31 +861,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.5106614771179</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>162.3364906735232</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>304.8745447086576</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -914,7 +916,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481162</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>87.67651810013182</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -990,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250816</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229327</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1060,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1096,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491425</v>
+        <v>28.44734925172066</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1111,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>171.9664138887671</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>116.700859069477</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481162</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>75.47724870633921</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250816</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229327</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,13 +1293,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1309,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>25.3159054168623</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1348,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>66.12354205134311</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1534,16 +1536,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>3.658918749019481</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>220.5519465313672</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1619,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1813,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1828,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1856,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896924</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113164</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505273999</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,16 +2004,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2053,10 +2055,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>49.38162151975411</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>161.0156334937747</v>
       </c>
     </row>
     <row r="20">
@@ -2236,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>14.78443521903847</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,10 +2292,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2305,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>21.12833712222993</v>
       </c>
     </row>
     <row r="23">
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>67.61524188852272</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>127.7178027211458</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2567,10 +2569,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896904</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
         <v>81.77913505274074</v>
@@ -2606,10 +2608,10 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2716,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>108.6299016415611</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2770,7 +2772,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.7000900522966</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898717</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857169</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>78.3020725169285</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329058</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373692</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789546</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463131</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415212</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>129.7889198539626</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>153.4156709287486</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>218.105462268937</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>184.0057531941873</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>218.3911082069503</v>
+        <v>242.8114098523251</v>
       </c>
       <c r="X31" t="n">
-        <v>157.5777652593965</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.4527632224541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>13.31645906835351</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463091</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>129.7889198539626</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>153.4156709287486</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>218.105462268937</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>157.5777652593965</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3275,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G35" t="n">
         <v>411.9645167896915</v>
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463177</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>129.7889198539626</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>153.4156709287486</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>218.1054622689367</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>157.5777652593965</v>
+        <v>174.7611531036558</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3518,10 +3520,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>80.7819382378959</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>129.7889198539626</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>153.4156709287486</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>218.1054622689367</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>157.5777652593965</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3803,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373736</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463131</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415212</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>129.7889198539626</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>153.4156709287486</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>218.1054622689367</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>157.5777652593965</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4144,16 +4146,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,22 +4185,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V46" t="n">
-        <v>243.674146253355</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1957.780595683986</v>
+        <v>1611.619444146874</v>
       </c>
       <c r="C2" t="n">
-        <v>1957.780595683986</v>
+        <v>1242.656927206462</v>
       </c>
       <c r="D2" t="n">
-        <v>1599.514897077236</v>
+        <v>1242.656927206462</v>
       </c>
       <c r="E2" t="n">
-        <v>1213.726644478992</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F2" t="n">
-        <v>802.7407396893841</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W2" t="n">
-        <v>2344.380435748108</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="X2" t="n">
-        <v>2344.380435748108</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="Y2" t="n">
-        <v>2344.380435748108</v>
+        <v>1998.219284210995</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4419,10 +4421,10 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4507,28 +4509,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y4" t="n">
         <v>53.94298182036445</v>
@@ -4541,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1749.341643278937</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C5" t="n">
-        <v>1749.341643278937</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E5" t="n">
         <v>1363.553390680693</v>
@@ -4562,16 +4564,16 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4580,37 +4582,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548717</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548717</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548717</v>
+        <v>2377.380774367803</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186808</v>
+        <v>2123.618989005894</v>
       </c>
       <c r="V5" t="n">
-        <v>2057.295728843238</v>
+        <v>2123.618989005894</v>
       </c>
       <c r="W5" t="n">
-        <v>2057.295728843238</v>
+        <v>2123.618989005894</v>
       </c>
       <c r="X5" t="n">
-        <v>2057.295728843238</v>
+        <v>1750.153230744814</v>
       </c>
       <c r="Y5" t="n">
-        <v>2057.295728843238</v>
+        <v>1750.153230744814</v>
       </c>
     </row>
     <row r="6">
@@ -4641,16 +4643,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204944</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.447464661593</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.063382757265</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
         <v>1313.210296315296</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036448</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036448</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036448</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036448</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036448</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477912</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658212</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502504</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594906</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600568</v>
+        <v>699.3942879925752</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600568</v>
+        <v>699.3942879925752</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600568</v>
+        <v>699.3942879925752</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600568</v>
+        <v>699.3942879925752</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600568</v>
+        <v>699.3942879925752</v>
       </c>
       <c r="V7" t="n">
-        <v>525.0086166875648</v>
+        <v>699.3942879925752</v>
       </c>
       <c r="W7" t="n">
-        <v>235.5914466506042</v>
+        <v>699.3942879925752</v>
       </c>
       <c r="X7" t="n">
-        <v>235.5914466506042</v>
+        <v>699.3942879925752</v>
       </c>
       <c r="Y7" t="n">
-        <v>235.5914466506042</v>
+        <v>699.3942879925752</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1309.714918859357</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="C8" t="n">
-        <v>1309.714918859357</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D8" t="n">
-        <v>1191.835263233623</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E8" t="n">
-        <v>806.0470106353782</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>395.0611058457707</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036447</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977176</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548717</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862887</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.30824683495</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.546461473042</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.483574129471</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W8" t="n">
-        <v>1309.714918859357</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="X8" t="n">
-        <v>1309.714918859357</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="Y8" t="n">
-        <v>1309.714918859357</v>
+        <v>2135.941483343059</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204944</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.447464661593</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.063382757265</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>190.2718927217162</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C10" t="n">
-        <v>190.2718927217162</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D10" t="n">
-        <v>190.2718927217162</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477912</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658212</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502504</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594906</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064349</v>
+        <v>702.55736257324</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064349</v>
+        <v>702.55736257324</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064349</v>
+        <v>702.55736257324</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064349</v>
+        <v>702.55736257324</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064349</v>
+        <v>702.55736257324</v>
       </c>
       <c r="V10" t="n">
-        <v>661.3375275889166</v>
+        <v>702.55736257324</v>
       </c>
       <c r="W10" t="n">
-        <v>371.9203575519559</v>
+        <v>702.55736257324</v>
       </c>
       <c r="X10" t="n">
-        <v>371.9203575519559</v>
+        <v>702.55736257324</v>
       </c>
       <c r="Y10" t="n">
-        <v>371.9203575519559</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="11">
@@ -5024,25 +5026,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5054,10 +5056,10 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5066,10 +5068,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5118,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>247.8029164824583</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="C13" t="n">
-        <v>247.8029164824583</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="D13" t="n">
-        <v>247.8029164824583</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5221,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609664</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V13" t="n">
-        <v>986.0022165609664</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W13" t="n">
-        <v>696.5850465240057</v>
+        <v>965.1414130642022</v>
       </c>
       <c r="X13" t="n">
-        <v>468.5954956259884</v>
+        <v>965.1414130642022</v>
       </c>
       <c r="Y13" t="n">
-        <v>247.8029164824583</v>
+        <v>744.3488339206721</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5276,25 +5278,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5355,22 +5357,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1208.995055864553</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1538.857683528586</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5461,19 +5463,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X16" t="n">
         <v>97.21709146028584</v>
@@ -5492,31 +5494,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805457</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822454</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5531,10 +5533,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5546,16 +5548,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5592,22 +5594,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277032</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341671</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>841.8631140141287</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1646.274692278279</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5647,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>392.0201325405893</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C19" t="n">
-        <v>392.0201325405893</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D19" t="n">
-        <v>392.0201325405893</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
         <v>97.21709146028584</v>
@@ -5674,19 +5676,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5701,22 +5703,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609662</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V19" t="n">
-        <v>731.3177283550793</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W19" t="n">
-        <v>441.9005583181187</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X19" t="n">
-        <v>392.0201325405893</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y19" t="n">
-        <v>392.0201325405893</v>
+        <v>564.1830073829216</v>
       </c>
     </row>
     <row r="20">
@@ -5762,7 +5764,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5829,25 +5831,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>659.3731057211721</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M21" t="n">
-        <v>1039.489963795367</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N21" t="n">
-        <v>1843.901542059518</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O21" t="n">
-        <v>2123.441607278215</v>
+        <v>2302.237516093321</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3907.801489902814</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C22" t="n">
-        <v>3738.865306974907</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D22" t="n">
-        <v>3738.865306974907</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>3738.865306974907</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>3738.865306974907</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4660.934562929845</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>4660.934562929845</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>4660.934562929845</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>4660.934562929845</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W22" t="n">
-        <v>4371.517392892884</v>
+        <v>496.665036439558</v>
       </c>
       <c r="X22" t="n">
-        <v>4143.527841994867</v>
+        <v>268.6754855415407</v>
       </c>
       <c r="Y22" t="n">
-        <v>3922.735262851337</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>2786.879505108311</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>3033.644633014775</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>3340.964766294737</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>3670.82739395877</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>4045.444533962831</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>226.2249729967968</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C25" t="n">
-        <v>226.2249729967968</v>
+        <v>972.2646934632138</v>
       </c>
       <c r="D25" t="n">
-        <v>226.2249729967968</v>
+        <v>822.148054050878</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684849</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6151,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6169,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>964.135741824786</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>675.0071030383442</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V25" t="n">
-        <v>675.0071030383442</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W25" t="n">
-        <v>675.0071030383442</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X25" t="n">
-        <v>447.0175521403269</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="Y25" t="n">
-        <v>226.2249729967968</v>
+        <v>1209.499100520942</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6300,25 +6302,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>468.5954956259884</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>468.5954956259884</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>318.4788562136526</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>318.4788562136526</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>318.4788562136526</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6388,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6409,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011507</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952638</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028587</v>
+        <v>468.5954956259884</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>468.5954956259884</v>
       </c>
     </row>
     <row r="29">
@@ -6443,28 +6445,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822459</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514078</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6473,7 +6475,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.460239110833</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229671</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506724</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083204</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504512</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G31" t="n">
-        <v>221.5295092103129</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H31" t="n">
-        <v>139.9315917982973</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>177.0503551525399</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254957</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649692</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>1048.866260860496</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>1386.860941116388</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>1688.186490350129</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1932.236826184156</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>2038.520840384657</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1996.265827986523</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1865.165908942116</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1710.200584771663</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>1489.892037025262</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859416</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W31" t="n">
-        <v>1083.430560862497</v>
+        <v>540.8181561206347</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045207</v>
+        <v>540.8181561206347</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010316</v>
+        <v>540.8181561206347</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
         <v>1701.093169003441</v>
@@ -6686,31 +6688,31 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155895</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822469</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643324</v>
@@ -6719,31 +6721,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>2500.819361250804</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>2649.889045452864</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>2896.654173359328</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M33" t="n">
-        <v>3203.974306639289</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N33" t="n">
-        <v>4008.38588490344</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O33" t="n">
-        <v>4287.925950122137</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>4565.745155698579</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3481.79397174047</v>
+        <v>558.0926555785013</v>
       </c>
       <c r="C34" t="n">
-        <v>3381.677879852604</v>
+        <v>558.0926555785013</v>
       </c>
       <c r="D34" t="n">
-        <v>3300.38133148031</v>
+        <v>407.9760161661656</v>
       </c>
       <c r="E34" t="n">
-        <v>3221.288328937957</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F34" t="n">
-        <v>3143.218472480088</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G34" t="n">
-        <v>3043.86324183995</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H34" t="n">
-        <v>2962.265324427934</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>2919.550824089923</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>2999.384087782177</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3217.020063255133</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3532.182679494606</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>3871.199993490134</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4209.194673746026</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4510.520222979767</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4754.570558813793</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4818.59956061616</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4687.499641571753</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>4532.534317401301</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>4312.2257696549</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>4126.361372489054</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W34" t="n">
-        <v>3905.764293492134</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="X34" t="n">
-        <v>3746.594833634158</v>
+        <v>558.0926555785013</v>
       </c>
       <c r="Y34" t="n">
-        <v>3594.622345530669</v>
+        <v>558.0926555785013</v>
       </c>
     </row>
     <row r="35">
@@ -6914,31 +6916,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6947,7 +6949,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6959,25 +6961,25 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7002,40 +7004,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108334</v>
+        <v>1029.666285013068</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229675</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506729</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083209</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504516</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103133</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982977</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649692</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860496</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116388</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350129</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184156</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771663</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862497</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="X37" t="n">
-        <v>924.261101004521</v>
+        <v>1211.314749843308</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.288612901032</v>
+        <v>1211.314749843308</v>
       </c>
     </row>
     <row r="38">
@@ -7151,28 +7153,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155877</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514083</v>
@@ -7184,7 +7186,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7196,25 +7198,25 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7239,40 +7241,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108334</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083209</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504516</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103133</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649692</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860496</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116388</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.186490350129</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184156</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942116</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771663</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862497</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>924.261101004521</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.288612901032</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7394,25 +7396,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7421,7 +7423,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7433,28 +7435,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7476,40 +7478,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108334</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083209</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504516</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649692</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860496</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116388</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.186490350129</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184156</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771663</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862497</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X43" t="n">
-        <v>924.261101004521</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.288612901032</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="44">
@@ -7625,70 +7627,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7713,34 +7715,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7831,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>963.6521305054455</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>674.2349604684848</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8067,13 +8069,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8304,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451747</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8541,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451747</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>306.1147370139963</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8948,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9009,25 +9011,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>199.7396287231156</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298298</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9252,19 +9254,19 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>199.6230805871098</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9486,19 +9488,19 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>73.53204524669997</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>29.47535963978262</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445217</v>
@@ -9659,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9729,10 +9731,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>96.03744927814557</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9951,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9966,10 +9968,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>96.03744927814694</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10425,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10434,7 +10436,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
@@ -10443,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>73.53204524669962</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298108</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>96.03744927814716</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10680,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298108</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10914,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>349.7653003338571</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298108</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11151,16 +11153,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>96.03744927814694</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298108</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,13 +11378,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>234.4116509503167</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11391,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23422,16 +23424,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>142.7750438975497</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23461,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>65.97105180522379</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23701,7 +23703,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23890,16 +23892,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23941,10 +23943,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>176.328033869283</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>57.5690198583201</v>
       </c>
     </row>
     <row r="20">
@@ -24124,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>165.0475449628988</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,10 +24180,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>197.4563162298649</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>112.2167382934146</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>18.71615992542337</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24604,7 +24606,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>57.86366682181644</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24651,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338567</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24838,19 +24840,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24895,16 +24897,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>43.71158848426595</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>133.1175035782157</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25132,16 +25134,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,25 +25362,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>50.94850228538132</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25786,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26032,16 +26034,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,22 +26073,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V46" t="n">
-        <v>8.463497070473039</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>637168.1412945075</v>
+        <v>607930.4035028581</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>637168.1412945075</v>
+        <v>607930.4035028582</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>637168.1412945075</v>
+        <v>607930.4035028582</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>637168.1412945075</v>
+        <v>607930.4035028582</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>637168.1412945075</v>
+        <v>607930.4035028582</v>
       </c>
     </row>
     <row r="16">
@@ -26314,43 +26316,43 @@
         <v>821041.7698642833</v>
       </c>
       <c r="C2" t="n">
+        <v>821041.7698642832</v>
+      </c>
+      <c r="D2" t="n">
         <v>821041.7698642833</v>
       </c>
-      <c r="D2" t="n">
-        <v>821041.7698642834</v>
-      </c>
       <c r="E2" t="n">
-        <v>782058.1194754175</v>
+        <v>782058.1194754177</v>
       </c>
       <c r="F2" t="n">
-        <v>782058.1194754177</v>
+        <v>782058.1194754178</v>
       </c>
       <c r="G2" t="n">
-        <v>782058.1194754179</v>
+        <v>782058.1194754174</v>
       </c>
       <c r="H2" t="n">
-        <v>782058.1194754179</v>
+        <v>782058.1194754178</v>
       </c>
       <c r="I2" t="n">
         <v>782058.1194754175</v>
       </c>
       <c r="J2" t="n">
+        <v>782058.1194754179</v>
+      </c>
+      <c r="K2" t="n">
         <v>782058.1194754178</v>
       </c>
-      <c r="K2" t="n">
-        <v>821041.7698642845</v>
-      </c>
       <c r="L2" t="n">
-        <v>821041.7698642845</v>
+        <v>782058.1194754177</v>
       </c>
       <c r="M2" t="n">
-        <v>821041.7698642847</v>
+        <v>782058.1194754175</v>
       </c>
       <c r="N2" t="n">
-        <v>821041.7698642844</v>
+        <v>782058.1194754177</v>
       </c>
       <c r="O2" t="n">
-        <v>821041.7698642845</v>
+        <v>782058.1194754177</v>
       </c>
       <c r="P2" t="n">
         <v>782058.1194754177</v>
@@ -26366,37 +26368,37 @@
         <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
-        <v>3.10570385408937e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768957</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
-        <v>3.900634604586481e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>54505.51210371254</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,7 +26423,7 @@
         <v>165632.8677865244</v>
       </c>
       <c r="D4" t="n">
-        <v>165632.8677865243</v>
+        <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
         <v>22174.60758687071</v>
@@ -26430,34 +26432,34 @@
         <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687078</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
-        <v>44593.39482819119</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="L4" t="n">
-        <v>44593.39482819119</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="M4" t="n">
-        <v>44593.39482819124</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="N4" t="n">
-        <v>44593.39482819124</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="O4" t="n">
-        <v>44593.39482819125</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="P4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
     </row>
     <row r="5">
@@ -26470,16 +26472,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
@@ -26494,22 +26496,22 @@
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>97715.1058200254</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002538</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002538</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002538</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-17418.05520019494</v>
+        <v>-17418.05520019503</v>
       </c>
       <c r="C6" t="n">
-        <v>572549.8240143491</v>
+        <v>572549.8240143493</v>
       </c>
       <c r="D6" t="n">
-        <v>572549.8240143496</v>
+        <v>572549.8240143495</v>
       </c>
       <c r="E6" t="n">
-        <v>142736.1494629346</v>
+        <v>142736.1494629341</v>
       </c>
       <c r="F6" t="n">
-        <v>667896.1859398304</v>
+        <v>667896.1859398305</v>
       </c>
       <c r="G6" t="n">
-        <v>667896.1859398305</v>
+        <v>667896.1859398301</v>
       </c>
       <c r="H6" t="n">
         <v>667896.1859398305</v>
@@ -26543,22 +26545,22 @@
         <v>667896.1859398303</v>
       </c>
       <c r="J6" t="n">
-        <v>491472.9667472375</v>
+        <v>491472.9667472377</v>
       </c>
       <c r="K6" t="n">
-        <v>624227.7571123554</v>
+        <v>667896.1859398305</v>
       </c>
       <c r="L6" t="n">
-        <v>678733.269216068</v>
+        <v>667896.1859398304</v>
       </c>
       <c r="M6" t="n">
-        <v>543932.2539822311</v>
+        <v>533095.1707059931</v>
       </c>
       <c r="N6" t="n">
-        <v>678733.2692160679</v>
+        <v>667896.1859398304</v>
       </c>
       <c r="O6" t="n">
-        <v>678733.2692160679</v>
+        <v>667896.1859398304</v>
       </c>
       <c r="P6" t="n">
         <v>667896.1859398304</v>
@@ -26695,34 +26697,34 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.875793255733101e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.875793255733101e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>4.875793255733101e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>4.875793255733101e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.875793255733101e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26738,19 +26740,19 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.743664217087</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.743664217087</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="F3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="G3" t="n">
         <v>830.3824054541002</v>
-      </c>
-      <c r="F3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="G3" t="n">
-        <v>830.3824054541001</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
@@ -26765,19 +26767,19 @@
         <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26917,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.875793255733101e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26932,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26960,13 +26962,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370132</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990167</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>4.875793255733101e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27381,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>349.686552666889</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>148.328478739684</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27433,19 +27435,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27579,31 +27581,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>6.771212764859854</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>89.80115265030477</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>77.85929695482298</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,7 +27624,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27664,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>128.771802257526</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27780,13 +27782,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853696</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>0.6754007031936418</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -27831,10 +27833,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>80.17122943506087</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>237.9821825512059</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>310.7606899497144</v>
       </c>
     </row>
     <row r="9">
@@ -28011,13 +28013,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853696</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491425</v>
+        <v>3.806844538052008</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28068,10 +28070,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>186.0141012724849</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28579,7 +28581,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1.26672618754473e-12</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -30004,7 +30006,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30238,7 +30240,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30523,7 +30525,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340047</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554472</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727437</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081579</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630672</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338307</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119868</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954669</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044139</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633806</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727386</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473559</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141116</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188921</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890692</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396483</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478009</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983124</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923049</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479579</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034986</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131474</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372668</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619158</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078616</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644448</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492007</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813582</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302246</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246925</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M7" t="n">
-        <v>106.7776065917251</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175852</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383808</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678013</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695337</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197226</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315613</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340047</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554472</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727437</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081579</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630672</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338307</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119868</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954669</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044139</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633806</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727386</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473559</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141116</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188921</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890692</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396483</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478009</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983124</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923049</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479579</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034986</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131474</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372668</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619158</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078616</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644448</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492007</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813582</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302246</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246925</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917251</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175852</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383808</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678013</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695337</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197226</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315613</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32233,40 +32235,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,10 +32308,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215733</v>
@@ -32318,7 +32320,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
         <v>452.5584109724845</v>
@@ -32327,10 +32329,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
@@ -32342,7 +32344,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32406,7 +32408,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32418,10 +32420,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
         <v>0.08167695791351813</v>
@@ -33409,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34357,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34787,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34936,25 +34938,25 @@
         <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343421</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435304</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492239</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530454</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.93761631168</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898691</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770697</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.441326826294</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355116</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
-        <v>444.58174042459</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735648</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137342</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713961</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535657</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N7" t="n">
-        <v>148.3708461458881</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873156</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343421</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435304</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492239</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530454</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.93761631168</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898691</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770697</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.441326826294</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355116</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.58174042459</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735648</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137342</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713961</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535657</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458881</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873156</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>555.3724419700205</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>482.1033309642237</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>481.9867828282178</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36048,7 +36050,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
@@ -36060,7 +36062,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
         <v>150.5754385879392</v>
@@ -36206,19 +36208,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>383.9564222971663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>236.5687745713073</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36379,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
@@ -36449,10 +36451,10 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>378.4011515192537</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36592,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
@@ -36671,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
@@ -36686,10 +36688,10 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>378.4011515192551</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.6396602952062</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>219.8343186595512</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>304.3692416502436</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414415</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
         <v>150.5754385879392</v>
@@ -37154,19 +37156,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>280.6254601782243</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595512</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>345.2951542341714</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595512</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>632.1290025749652</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595512</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
@@ -37871,16 +37873,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>378.4011515192551</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.6396602952062</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595512</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,22 +38098,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>544.836028000783</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38172,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4294828.515388786</v>
+        <v>4287811.500497075</v>
       </c>
     </row>
     <row r="7">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>32.24381740537271</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>99.698563043359</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -819,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>59.72683757586863</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>162.3364906735232</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>132.5172612375155</v>
       </c>
       <c r="T5" t="n">
-        <v>87.67651810013182</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>43.31785343913975</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>28.44734925172066</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1150,10 +1150,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>153.6130780790968</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>75.47724870633921</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1302,13 +1302,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>70.80276983270126</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>25.3159054168623</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1539,13 +1539,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>139.153727875004</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>220.5519465313672</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1624,10 +1624,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.287249111317</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505273999</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2004,13 +2004,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y19" t="n">
-        <v>161.0156334937747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2244,10 +2244,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2298,16 +2298,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>255.6160124902395</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>21.12833712222993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>67.61524188852272</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896904</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T26" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>108.6299016415611</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>206.806426921486</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3009,13 +3009,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>242.8114098523251</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3192,19 +3192,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>13.31645906835351</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
@@ -3246,13 +3246,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>33.35146980185879</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3277,16 +3277,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.287249111317</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>174.7611531036558</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3717,13 +3717,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3900,16 +3900,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3954,16 +3954,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>224.895256723152</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>95.02525064967651</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4191,16 +4191,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>203.8435192151918</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>53.88833017866472</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1611.619444146874</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="C2" t="n">
-        <v>1242.656927206462</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="D2" t="n">
-        <v>1242.656927206462</v>
+        <v>1522.852542550656</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>1137.064289952412</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>726.0783851628041</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>308.114577060991</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>2388.358616186807</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W2" t="n">
-        <v>2388.358616186807</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="X2" t="n">
-        <v>2388.358616186807</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="Y2" t="n">
-        <v>1998.219284210995</v>
+        <v>1881.118241157406</v>
       </c>
     </row>
     <row r="3">
@@ -4427,7 +4427,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>409.0761618661918</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>261.1630682837987</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2731207858883</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>564.1527310008552</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1363.553390680693</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>1363.553390680693</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.553390680693</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4570,7 +4570,7 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2563.293271586389</v>
       </c>
       <c r="T5" t="n">
-        <v>2377.380774367803</v>
+        <v>2563.293271586389</v>
       </c>
       <c r="U5" t="n">
-        <v>2123.618989005894</v>
+        <v>2309.53148622448</v>
       </c>
       <c r="V5" t="n">
-        <v>2123.618989005894</v>
+        <v>1978.468598880909</v>
       </c>
       <c r="W5" t="n">
-        <v>2123.618989005894</v>
+        <v>1978.468598880909</v>
       </c>
       <c r="X5" t="n">
-        <v>1750.153230744814</v>
+        <v>1978.468598880909</v>
       </c>
       <c r="Y5" t="n">
-        <v>1750.153230744814</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>517.7458231623355</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="C7" t="n">
-        <v>517.7458231623355</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>699.3942879925752</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>699.3942879925752</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>699.3942879925752</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>699.3942879925752</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>699.3942879925752</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>699.3942879925752</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>699.3942879925752</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>699.3942879925752</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y7" t="n">
-        <v>699.3942879925752</v>
+        <v>279.3468541648867</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1749.341643278937</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="C8" t="n">
-        <v>1749.341643278937</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>1423.84567264245</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>1038.057420044206</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>627.0715152545986</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>209.1077071527855</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4837,19 +4837,19 @@
         <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500977</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2212.181128500977</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W8" t="n">
-        <v>2212.181128500977</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X8" t="n">
-        <v>2212.181128500977</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="Y8" t="n">
-        <v>2135.941483343059</v>
+        <v>1782.111371249201</v>
       </c>
     </row>
     <row r="9">
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>520.9088977430002</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C10" t="n">
-        <v>351.9727148150933</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>578.0123447940987</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>430.0992512117056</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>283.2093037137952</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>702.55736257324</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>702.55736257324</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>702.55736257324</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>702.55736257324</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>702.55736257324</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>702.55736257324</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>702.55736257324</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>702.55736257324</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>702.55736257324</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823776</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5053,7 +5053,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5065,28 +5065,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>462.7283310300493</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>709.4934589365134</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1016.813592216475</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C13" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D13" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.92115703528</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U13" t="n">
-        <v>1187.92115703528</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V13" t="n">
-        <v>1187.92115703528</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W13" t="n">
-        <v>965.1414130642022</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>965.1414130642022</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y13" t="n">
-        <v>744.3488339206721</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5263,13 +5263,13 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5278,7 +5278,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514085</v>
@@ -5357,22 +5357,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765186</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V16" t="n">
-        <v>531.3977182706318</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W16" t="n">
-        <v>241.9805482336712</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="17">
@@ -5506,34 +5506,34 @@
         <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822454</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5609,7 +5609,7 @@
         <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>564.1830073829216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
         <v>97.21709146028584</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>1244.231782352015</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>954.8146123150548</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>726.8250614170374</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>564.1830073829216</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5737,25 +5737,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5831,28 +5831,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1632.773754790662</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2302.237516093321</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>247.3337308726216</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C22" t="n">
-        <v>247.3337308726216</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E22" t="n">
         <v>97.21709146028584</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V22" t="n">
-        <v>786.0822064765186</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W22" t="n">
-        <v>496.665036439558</v>
+        <v>473.1197359406963</v>
       </c>
       <c r="X22" t="n">
-        <v>268.6754855415407</v>
+        <v>245.130185042679</v>
       </c>
       <c r="Y22" t="n">
-        <v>247.3337308726216</v>
+        <v>245.130185042679</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6065,7 +6065,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
@@ -6086,10 +6086,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>972.2646934632138</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>822.148054050878</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>674.2349604684849</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>1498.916270557902</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W25" t="n">
-        <v>1209.499100520942</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X25" t="n">
-        <v>1209.499100520942</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>1209.499100520942</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805468</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6226,13 +6226,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6256,22 +6256,22 @@
         <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6323,10 +6323,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>468.5954956259884</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>468.5954956259884</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>318.4788562136526</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>318.4788562136526</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>318.4788562136526</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U28" t="n">
-        <v>986.0022165609664</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V28" t="n">
-        <v>986.0022165609664</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W28" t="n">
-        <v>696.5850465240057</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X28" t="n">
-        <v>468.5954956259884</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y28" t="n">
-        <v>468.5954956259884</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6454,37 +6454,37 @@
         <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514078</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>786.0822064765186</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>540.8181561206347</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>540.8181561206347</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>540.8181561206347</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6679,46 +6679,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6779,25 +6779,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>558.0926555785013</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>558.0926555785013</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>407.9760161661656</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
         <v>97.21709146028584</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U34" t="n">
-        <v>786.0822064765186</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V34" t="n">
-        <v>786.0822064765186</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W34" t="n">
-        <v>786.0822064765186</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="X34" t="n">
-        <v>558.0926555785013</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>558.0926555785013</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6919,16 +6919,16 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6937,10 +6937,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6949,7 +6949,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -7016,22 +7016,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>891.4406401619858</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M36" t="n">
-        <v>1198.760773441947</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N36" t="n">
-        <v>1528.62340110598</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1029.666285013068</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>860.7301020851612</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
         <v>97.21709146028584</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1387.841167119728</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>1387.841167119728</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>1387.841167119728</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>1387.841167119728</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>1211.314749843308</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>1211.314749843308</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7153,40 +7153,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7201,22 +7201,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7253,28 +7253,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>841.8631140141288</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1171.725741678162</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7365,10 +7365,10 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W40" t="n">
         <v>325.2066423583032</v>
@@ -7390,40 +7390,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G41" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F43" t="n">
         <v>97.21709146028584</v>
@@ -7602,19 +7602,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>1271.749344574921</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>1017.064856369034</v>
+        <v>1402.931168891562</v>
       </c>
       <c r="W43" t="n">
-        <v>727.647686332073</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="X43" t="n">
-        <v>499.6581354340557</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="Y43" t="n">
-        <v>278.8655562905255</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="44">
@@ -7627,46 +7627,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>584.4452354807079</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7839,19 +7839,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>766.0937003109476</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>766.0937003109476</v>
       </c>
     </row>
   </sheetData>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>176.7176547498442</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8783,16 +8783,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9008,28 +9008,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>306.1147370139961</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9257,10 +9257,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>288.4091825776756</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9479,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>29.47535963978262</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10427,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>96.03744927814716</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10916,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>349.7653003338571</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23427,13 +23427,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>65.97105180522379</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23703,13 +23703,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23892,13 +23892,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23940,13 +23940,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y19" t="n">
-        <v>57.5690198583201</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24132,10 +24132,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24177,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>30.90698584635155</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>197.4563162298649</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>112.2167382934146</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,22 +24414,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24606,7 +24606,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>57.86366682181644</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,16 +24651,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>79.43092547709136</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24855,10 +24855,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,13 +24897,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>43.71158848426595</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25080,19 +25080,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>133.1175035782157</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25134,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>192.3581855871784</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>50.94850228538132</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25605,13 +25605,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25788,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25842,16 +25842,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>61.3420956754253</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>157.1123926741515</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26079,16 +26079,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>82.39383318338557</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>171.8213252103724</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>607930.4035028581</v>
+        <v>607930.4035028582</v>
       </c>
     </row>
     <row r="12">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.7698642832</v>
       </c>
       <c r="C2" t="n">
+        <v>821041.769864283</v>
+      </c>
+      <c r="D2" t="n">
         <v>821041.7698642832</v>
       </c>
-      <c r="D2" t="n">
-        <v>821041.7698642833</v>
-      </c>
       <c r="E2" t="n">
+        <v>782058.1194754178</v>
+      </c>
+      <c r="F2" t="n">
+        <v>782058.1194754175</v>
+      </c>
+      <c r="G2" t="n">
+        <v>782058.1194754178</v>
+      </c>
+      <c r="H2" t="n">
+        <v>782058.1194754174</v>
+      </c>
+      <c r="I2" t="n">
+        <v>782058.1194754178</v>
+      </c>
+      <c r="J2" t="n">
+        <v>782058.1194754178</v>
+      </c>
+      <c r="K2" t="n">
         <v>782058.1194754177</v>
-      </c>
-      <c r="F2" t="n">
-        <v>782058.1194754178</v>
-      </c>
-      <c r="G2" t="n">
-        <v>782058.1194754174</v>
-      </c>
-      <c r="H2" t="n">
-        <v>782058.1194754178</v>
-      </c>
-      <c r="I2" t="n">
-        <v>782058.1194754175</v>
-      </c>
-      <c r="J2" t="n">
-        <v>782058.1194754179</v>
-      </c>
-      <c r="K2" t="n">
-        <v>782058.1194754178</v>
       </c>
       <c r="L2" t="n">
         <v>782058.1194754177</v>
       </c>
       <c r="M2" t="n">
-        <v>782058.1194754175</v>
+        <v>782058.1194754178</v>
       </c>
       <c r="N2" t="n">
-        <v>782058.1194754177</v>
+        <v>782058.1194754179</v>
       </c>
       <c r="O2" t="n">
-        <v>782058.1194754177</v>
+        <v>782058.1194754178</v>
       </c>
       <c r="P2" t="n">
-        <v>782058.1194754177</v>
+        <v>782058.1194754174</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="F4" t="n">
         <v>22174.60758687071</v>
@@ -26441,7 +26441,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="K4" t="n">
         <v>22174.60758687071</v>
@@ -26478,16 +26478,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26499,19 +26499,19 @@
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-17418.05520019503</v>
+        <v>-17418.05520019526</v>
       </c>
       <c r="C6" t="n">
         <v>572549.8240143493</v>
       </c>
       <c r="D6" t="n">
-        <v>572549.8240143495</v>
+        <v>572549.8240143493</v>
       </c>
       <c r="E6" t="n">
-        <v>142736.1494629341</v>
+        <v>141761.5582032124</v>
       </c>
       <c r="F6" t="n">
-        <v>667896.1859398305</v>
+        <v>666921.5946801088</v>
       </c>
       <c r="G6" t="n">
-        <v>667896.1859398301</v>
+        <v>666921.5946801088</v>
       </c>
       <c r="H6" t="n">
-        <v>667896.1859398305</v>
+        <v>666921.5946801085</v>
       </c>
       <c r="I6" t="n">
-        <v>667896.1859398303</v>
+        <v>666921.5946801088</v>
       </c>
       <c r="J6" t="n">
-        <v>491472.9667472377</v>
+        <v>490498.3754875159</v>
       </c>
       <c r="K6" t="n">
-        <v>667896.1859398305</v>
+        <v>666921.5946801087</v>
       </c>
       <c r="L6" t="n">
-        <v>667896.1859398304</v>
+        <v>666921.5946801087</v>
       </c>
       <c r="M6" t="n">
-        <v>533095.1707059931</v>
+        <v>532120.5794462716</v>
       </c>
       <c r="N6" t="n">
-        <v>667896.1859398304</v>
+        <v>666921.5946801089</v>
       </c>
       <c r="O6" t="n">
-        <v>667896.1859398304</v>
+        <v>666921.5946801088</v>
       </c>
       <c r="P6" t="n">
-        <v>667896.1859398304</v>
+        <v>666921.5946801085</v>
       </c>
     </row>
   </sheetData>
@@ -26737,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>377.7436642170867</v>
       </c>
-      <c r="D3" t="n">
-        <v>377.7436642170866</v>
-      </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
@@ -26767,19 +26767,19 @@
         <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>349.686552666889</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>224.2242097209981</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27438,7 +27438,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,19 +27539,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>107.5829646831823</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27596,16 +27596,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>89.80115265030477</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,25 +27663,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>41.89845157145601</v>
       </c>
       <c r="T5" t="n">
-        <v>128.771802257526</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27782,13 +27782,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>1.882105749397248</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.6754007031936418</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>170.3096946852604</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,19 +27909,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>310.7606899497144</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28022,19 +28022,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>96.50703242634965</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.806844538052008</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,10 +31752,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31764,37 +31764,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,31 +31837,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31870,7 +31870,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>327.2930933377835</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>588.4784392551043</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35977,10 +35977,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>570.7728848187837</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>236.5687745713073</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36454,13 +36454,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36691,13 +36691,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -37068,16 +37068,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>345.2951542341714</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>632.1290025749652</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,16 +38104,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4287811.500497075</v>
+        <v>4292750.763346108</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>59.72683757586863</v>
+        <v>59.7268375758684</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>132.5172612375155</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>285.853806898679</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>43.31785343913975</v>
+        <v>43.31785343913998</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>70.80276983270126</v>
+        <v>70.80276983270103</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -1375,13 +1375,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206839</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498008</v>
+        <v>251.0785952498011</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1624,10 +1624,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.287249111317</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051986</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>224.895256723152</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>109.7395205132413</v>
       </c>
     </row>
     <row r="17">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>255.6160124902395</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>206.806426921486</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>28.73448241073158</v>
       </c>
     </row>
     <row r="29">
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>33.35146980185879</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T37" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3723,10 +3723,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>204.1291651532053</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3957,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>95.02525064967651</v>
+        <v>203.6455515979788</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4137,10 +4137,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>53.88833017866472</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>77.41339447783626</v>
       </c>
     </row>
   </sheetData>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>559.1928012785276</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D4" t="n">
-        <v>409.0761618661918</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E4" t="n">
-        <v>261.1630682837987</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F4" t="n">
-        <v>114.2731207858883</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4594,13 +4594,13 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2563.293271586389</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2563.293271586389</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2309.53148622448</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V5" t="n">
         <v>1978.468598880909</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>97.69838933464703</v>
+        <v>97.69838933464726</v>
       </c>
       <c r="C7" t="n">
-        <v>97.69838933464703</v>
+        <v>97.69838933464726</v>
       </c>
       <c r="D7" t="n">
-        <v>97.69838933464703</v>
+        <v>97.69838933464726</v>
       </c>
       <c r="E7" t="n">
-        <v>97.69838933464703</v>
+        <v>97.69838933464726</v>
       </c>
       <c r="F7" t="n">
-        <v>97.69838933464703</v>
+        <v>97.69838933464726</v>
       </c>
       <c r="G7" t="n">
-        <v>97.69838933464703</v>
+        <v>97.69838933464726</v>
       </c>
       <c r="H7" t="n">
-        <v>97.69838933464703</v>
+        <v>97.69838933464726</v>
       </c>
       <c r="I7" t="n">
-        <v>97.69838933464703</v>
+        <v>97.69838933464726</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>500.1394333084169</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="Y7" t="n">
-        <v>279.3468541648867</v>
+        <v>279.346854164887</v>
       </c>
     </row>
     <row r="8">
@@ -4804,19 +4804,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D10" t="n">
-        <v>578.0123447940987</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E10" t="n">
-        <v>430.0992512117056</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="F10" t="n">
-        <v>283.2093037137952</v>
+        <v>283.209303713795</v>
       </c>
       <c r="G10" t="n">
         <v>211.6913543878343</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5020,16 +5020,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5044,7 +5044,7 @@
         <v>365.8813331823776</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5269,7 +5269,7 @@
         <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5278,10 +5278,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823782</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
@@ -5290,7 +5290,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5357,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L15" t="n">
-        <v>796.3635653766202</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M15" t="n">
-        <v>1103.683698656582</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N15" t="n">
-        <v>1433.546326320615</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028584</v>
@@ -5469,19 +5469,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1271.749344574921</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>1017.064856369034</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W16" t="n">
-        <v>727.647686332073</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X16" t="n">
-        <v>499.6581354340557</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y16" t="n">
-        <v>278.8655562905255</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
     <row r="17">
@@ -5518,22 +5518,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5752,10 +5752,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5770,10 +5770,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
         <v>97.21709146028584</v>
@@ -5940,22 +5940,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609664</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V22" t="n">
-        <v>731.3177283550796</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W22" t="n">
-        <v>473.1197359406963</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X22" t="n">
-        <v>245.130185042679</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y22" t="n">
-        <v>245.130185042679</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="23">
@@ -5980,19 +5980,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6001,13 +6001,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6077,7 +6077,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6226,28 +6226,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6314,7 +6314,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6417,19 +6417,19 @@
         <v>1298.996260473455</v>
       </c>
       <c r="U28" t="n">
-        <v>1090.100879744681</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V28" t="n">
-        <v>835.416391538794</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W28" t="n">
-        <v>545.9992215018333</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X28" t="n">
-        <v>318.0096706038159</v>
+        <v>237.776412546148</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
     <row r="29">
@@ -6454,10 +6454,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
@@ -6882,22 +6882,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>964.135741824786</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>675.0071030383442</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>420.3226148324574</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>130.9054447954967</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X34" t="n">
         <v>97.21709146028584</v>
@@ -7122,7 +7122,7 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T37" t="n">
         <v>1158.436939387592</v>
@@ -7371,7 +7371,7 @@
         <v>531.3977182706318</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X40" t="n">
         <v>97.21709146028584</v>
@@ -7399,13 +7399,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
@@ -7593,25 +7593,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V43" t="n">
-        <v>1402.931168891562</v>
+        <v>1182.138589748032</v>
       </c>
       <c r="W43" t="n">
-        <v>1113.513998854602</v>
+        <v>892.7214197110717</v>
       </c>
       <c r="X43" t="n">
-        <v>1113.513998854602</v>
+        <v>892.7214197110717</v>
       </c>
       <c r="Y43" t="n">
         <v>892.7214197110717</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>584.4452354807079</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C46" t="n">
-        <v>415.509052552801</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D46" t="n">
-        <v>265.3924131404652</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E46" t="n">
-        <v>265.3924131404652</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F46" t="n">
-        <v>265.3924131404652</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>1075.21084526296</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V46" t="n">
-        <v>820.5263570570736</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W46" t="n">
-        <v>820.5263570570736</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="X46" t="n">
-        <v>766.0937003109476</v>
+        <v>468.5954956259884</v>
       </c>
       <c r="Y46" t="n">
-        <v>766.0937003109476</v>
+        <v>390.400147668578</v>
       </c>
     </row>
   </sheetData>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>306.1147370139961</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208064</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208064</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23709,7 +23709,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>61.3420956754253</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>108.8451328388535</v>
       </c>
     </row>
     <row r="17">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24135,7 +24135,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24180,22 +24180,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>30.90698584635155</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24621,7 +24621,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>79.43092547709136</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>189.8501709413632</v>
       </c>
     </row>
     <row r="29">
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>192.3581855871784</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25362,10 +25362,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T37" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25611,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>82.39383318338565</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
@@ -25845,7 +25845,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>157.1123926741515</v>
+        <v>48.49209172584924</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26025,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,25 +26073,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>171.8213252103724</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>141.1712588742585</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>821041.7698642833</v>
+      </c>
+      <c r="C2" t="n">
         <v>821041.7698642832</v>
       </c>
-      <c r="C2" t="n">
-        <v>821041.769864283</v>
-      </c>
       <c r="D2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="E2" t="n">
         <v>782058.1194754178</v>
       </c>
       <c r="F2" t="n">
-        <v>782058.1194754175</v>
+        <v>782058.1194754174</v>
       </c>
       <c r="G2" t="n">
         <v>782058.1194754178</v>
       </c>
       <c r="H2" t="n">
-        <v>782058.1194754174</v>
+        <v>782058.1194754175</v>
       </c>
       <c r="I2" t="n">
-        <v>782058.1194754178</v>
+        <v>782058.1194754175</v>
       </c>
       <c r="J2" t="n">
-        <v>782058.1194754178</v>
+        <v>782058.1194754177</v>
       </c>
       <c r="K2" t="n">
         <v>782058.1194754177</v>
       </c>
       <c r="L2" t="n">
-        <v>782058.1194754177</v>
+        <v>782058.1194754178</v>
       </c>
       <c r="M2" t="n">
+        <v>782058.1194754179</v>
+      </c>
+      <c r="N2" t="n">
         <v>782058.1194754178</v>
-      </c>
-      <c r="N2" t="n">
-        <v>782058.1194754179</v>
       </c>
       <c r="O2" t="n">
         <v>782058.1194754178</v>
       </c>
       <c r="P2" t="n">
-        <v>782058.1194754174</v>
+        <v>782058.1194754175</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687062</v>
       </c>
       <c r="F4" t="n">
         <v>22174.60758687071</v>
@@ -26441,7 +26441,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="K4" t="n">
         <v>22174.60758687071</v>
@@ -26478,10 +26478,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
@@ -26490,7 +26490,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-17418.05520019526</v>
+        <v>-17418.05520019503</v>
       </c>
       <c r="C6" t="n">
-        <v>572549.8240143493</v>
+        <v>572549.8240143494</v>
       </c>
       <c r="D6" t="n">
-        <v>572549.8240143493</v>
+        <v>572549.8240143495</v>
       </c>
       <c r="E6" t="n">
-        <v>141761.5582032124</v>
+        <v>142638.690336962</v>
       </c>
       <c r="F6" t="n">
-        <v>666921.5946801088</v>
+        <v>667798.7268138581</v>
       </c>
       <c r="G6" t="n">
-        <v>666921.5946801088</v>
+        <v>667798.7268138584</v>
       </c>
       <c r="H6" t="n">
-        <v>666921.5946801085</v>
+        <v>667798.7268138581</v>
       </c>
       <c r="I6" t="n">
-        <v>666921.5946801088</v>
+        <v>667798.7268138581</v>
       </c>
       <c r="J6" t="n">
-        <v>490498.3754875159</v>
+        <v>491375.5076212652</v>
       </c>
       <c r="K6" t="n">
-        <v>666921.5946801087</v>
+        <v>667798.7268138583</v>
       </c>
       <c r="L6" t="n">
-        <v>666921.5946801087</v>
+        <v>667798.7268138584</v>
       </c>
       <c r="M6" t="n">
-        <v>532120.5794462716</v>
+        <v>532997.7115800213</v>
       </c>
       <c r="N6" t="n">
-        <v>666921.5946801089</v>
+        <v>667798.7268138584</v>
       </c>
       <c r="O6" t="n">
-        <v>666921.5946801088</v>
+        <v>667798.7268138584</v>
       </c>
       <c r="P6" t="n">
-        <v>666921.5946801085</v>
+        <v>667798.7268138581</v>
       </c>
     </row>
   </sheetData>
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>377.7436642170866</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
@@ -26758,10 +26758,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541003</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.638741237014</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27551,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>107.5829646831823</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>41.89845157145601</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27675,7 +27675,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>41.89845157145589</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>1.882105749397248</v>
+        <v>1.882105749397013</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -28025,16 +28025,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>96.50703242634965</v>
+        <v>96.50703242634988</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28092,25 +28092,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-9.641133868265976e-13</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
     </row>
     <row r="12">
@@ -29274,7 +29274,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>137.9476282330536</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
@@ -35734,19 +35734,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>588.4784392551043</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,22 +36445,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523311</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,22 +36682,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523311</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
